--- a/unique_species.xlsx
+++ b/unique_species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/gustavo_tudela_ctfc_cat/Documents/PhD/2025/Exchange period - Finland/YassoModeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="411" documentId="11_6D70FDCE8F79A8D366075C52F32AFAB7A6EF8957" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0B9442B-B6D9-46E9-B4D6-C98855008B9C}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="11_6D70FDCE8F79A8D366075C52F32AFAB7A6EF8957" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E505E9-990D-45CF-A7BA-A35BFF0A8789}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,13 +26,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
-    <pivotCache cacheId="15" r:id="rId5"/>
-    <pivotCache cacheId="16" r:id="rId6"/>
-    <pivotCache cacheId="17" r:id="rId7"/>
-    <pivotCache cacheId="18" r:id="rId8"/>
-    <pivotCache cacheId="19" r:id="rId9"/>
-    <pivotCache cacheId="20" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId8"/>
+    <pivotCache cacheId="5" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -1977,7 +1977,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2043,6 +2043,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -4768,7 +4769,311 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A767ABBF-54D4-4EDA-A1E9-46328E202D47}" name="TablaDinámica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{339E5F78-E572-4A2B-B5D8-300CC6179C62}" name="TablaDinámica5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="O46:T48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Promedio de A" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de W" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de E" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de N" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de H" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="71">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de H"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de N"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de E"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de W"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de A"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="14"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Hoja2!$O$1:$Y$26">
+        <x15:activeTabTopLevelEntity name="[Rango 1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEF64FAF-D023-4824-B27D-9C152FB7B694}" name="TablaDinámica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A78:F81" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Promedio de A" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de W" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de E" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de N" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de H" fld="0" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="71">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de H"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de A"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de W"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de E"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de N"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="0"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Hoja2!$A$1:$M$44">
+        <x15:activeTabTopLevelEntity name="[Rango]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A767ABBF-54D4-4EDA-A1E9-46328E202D47}" name="TablaDinámica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A47:F75" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -5021,8 +5326,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{278A49DF-E001-483F-AC18-D642A91CED67}" name="TablaDinámica2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{278A49DF-E001-483F-AC18-D642A91CED67}" name="TablaDinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="AC55:AH58" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
@@ -5175,8 +5480,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B68E6DAD-EEF4-4857-8B24-31A6867BCEE3}" name="TablaDinámica1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B68E6DAD-EEF4-4857-8B24-31A6867BCEE3}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="O58:T60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
@@ -5325,8 +5630,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{742C77F3-07CD-4862-B42D-5801EF75802C}" name="TablaDinámica6" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{742C77F3-07CD-4862-B42D-5801EF75802C}" name="TablaDinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="AC46:AH50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -5483,312 +5788,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{339E5F78-E572-4A2B-B5D8-300CC6179C62}" name="TablaDinámica5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="O46:T48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Promedio de A" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de W" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de E" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de N" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de H" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="71">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de H"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de N"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de E"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de W"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de A"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="14"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Hoja2!$O$1:$Y$26">
-        <x15:activeTabTopLevelEntity name="[Rango 1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEF64FAF-D023-4824-B27D-9C152FB7B694}" name="TablaDinámica4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A78:F81" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Promedio de A" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de W" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de E" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de N" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de H" fld="0" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="71">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de H"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de A"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de W"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de E"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de N"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="0"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Hoja2!$A$1:$M$44">
-        <x15:activeTabTopLevelEntity name="[Rango]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9148E5BD-4E7B-49A8-A4C2-1950CC238082}" name="TablaDinámica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9148E5BD-4E7B-49A8-A4C2-1950CC238082}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="P4:U57" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -6342,10 +6343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6355,7 +6356,7 @@
     <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>223</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>225</v>
       </c>
@@ -6407,8 +6408,7 @@
         <v>0.2722</v>
       </c>
       <c r="G2" s="24">
-        <f>IFERROR(VLOOKUP(C2,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B2,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A2,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H2" s="24">
         <f>IFERROR(VLOOKUP(C2,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B2,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A2,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6417,8 +6417,11 @@
       <c r="I2" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>225</v>
       </c>
@@ -6441,8 +6444,7 @@
         <v>0.2722</v>
       </c>
       <c r="G3" s="24">
-        <f>IFERROR(VLOOKUP(C3,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B3,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A3,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H3" s="24">
         <f>IFERROR(VLOOKUP(C3,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B3,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A3,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6451,8 +6453,11 @@
       <c r="I3" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>225</v>
       </c>
@@ -6475,7 +6480,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G4" s="24">
-        <f>IFERROR(VLOOKUP(C4,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B4,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A4,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H4" s="24">
@@ -6485,8 +6489,11 @@
       <c r="I4" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>225</v>
       </c>
@@ -6509,8 +6516,7 @@
         <v>0.2722</v>
       </c>
       <c r="G5" s="24">
-        <f>IFERROR(VLOOKUP(C5,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B5,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A5,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H5" s="24">
         <f>IFERROR(VLOOKUP(C5,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B5,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A5,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6519,8 +6525,11 @@
       <c r="I5" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -6543,8 +6552,7 @@
         <v>0.2722</v>
       </c>
       <c r="G6" s="24">
-        <f>IFERROR(VLOOKUP(C6,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B6,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A6,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H6" s="24">
         <f>IFERROR(VLOOKUP(C6,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B6,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A6,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6553,8 +6561,11 @@
       <c r="I6" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>225</v>
       </c>
@@ -6577,7 +6588,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G7" s="24">
-        <f>IFERROR(VLOOKUP(C7,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B7,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A7,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H7" s="24">
@@ -6587,8 +6597,11 @@
       <c r="I7" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>224</v>
       </c>
@@ -6611,8 +6624,7 @@
         <v>0.16472500000000001</v>
       </c>
       <c r="G8" s="24">
-        <f>IFERROR(VLOOKUP(C8,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B8,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A8,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>0.10804999999999999</v>
+        <v>0.10986250000000009</v>
       </c>
       <c r="H8" s="24">
         <f>IFERROR(VLOOKUP(C8,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B8,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A8,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6621,8 +6633,11 @@
       <c r="I8" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>224</v>
       </c>
@@ -6645,8 +6660,7 @@
         <v>1.9012000000000001E-2</v>
       </c>
       <c r="G9" s="24">
-        <f>IFERROR(VLOOKUP(E9,Hoja2!$S$2:$X$2,4,0),IFERROR(VLOOKUP($B9,Hoja2!$O$46:$T$48,4,0),VLOOKUP($A9,Hoja2!$O$58:$T$60,4,0)))</f>
-        <v>7.8308000000000003E-2</v>
+        <v>7.6080000000000036E-2</v>
       </c>
       <c r="H9" s="24">
         <f>IFERROR(VLOOKUP(F9,Hoja2!$S$2:$X$2,5,0),IFERROR(VLOOKUP($B9,Hoja2!$O$46:$T$48,5,0),VLOOKUP($A9,Hoja2!$O$58:$T$60,5,0)))</f>
@@ -6655,8 +6669,11 @@
       <c r="I9" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>224</v>
       </c>
@@ -6679,8 +6696,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="G10" s="24">
-        <f>IFERROR(VLOOKUP(C10,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B10,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A10,Hoja2!$AC$55:$AH$58,4,0)))</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999964E-2</v>
       </c>
       <c r="H10" s="24">
         <f>IFERROR(VLOOKUP(C10,Hoja2!$AG$2:$AL$7,5,0),IFERROR(VLOOKUP($B10,Hoja2!$AC$46:$AH$50,5,0),VLOOKUP($A10,Hoja2!$AC$55:$AH$58,5,0)))</f>
@@ -6689,8 +6705,11 @@
       <c r="I10" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -6713,7 +6732,6 @@
         <v>0.1633</v>
       </c>
       <c r="G11" s="24">
-        <f>IFERROR(VLOOKUP(C11,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B11,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A11,Hoja2!$A$78:$F$81,4,0)))</f>
         <v>8.1699999999999995E-2</v>
       </c>
       <c r="H11" s="24">
@@ -6723,8 +6741,11 @@
       <c r="I11" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>224</v>
       </c>
@@ -6747,8 +6768,7 @@
         <v>1.9012000000000001E-2</v>
       </c>
       <c r="G12" s="24">
-        <f>IFERROR(VLOOKUP(E12,Hoja2!$S$2:$X$2,4,0),IFERROR(VLOOKUP($B12,Hoja2!$O$46:$T$48,4,0),VLOOKUP($A12,Hoja2!$O$58:$T$60,4,0)))</f>
-        <v>7.8308000000000003E-2</v>
+        <v>7.6080000000000036E-2</v>
       </c>
       <c r="H12" s="24">
         <f>IFERROR(VLOOKUP(F12,Hoja2!$S$2:$X$2,5,0),IFERROR(VLOOKUP($B12,Hoja2!$O$46:$T$48,5,0),VLOOKUP($A12,Hoja2!$O$58:$T$60,5,0)))</f>
@@ -6757,8 +6777,11 @@
       <c r="I12" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -6781,8 +6804,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="G13" s="24">
-        <f>IFERROR(VLOOKUP(C13,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B13,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A13,Hoja2!$AC$55:$AH$58,4,0)))</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999964E-2</v>
       </c>
       <c r="H13" s="24">
         <f>IFERROR(VLOOKUP(C13,Hoja2!$AG$2:$AL$7,5,0),IFERROR(VLOOKUP($B13,Hoja2!$AC$46:$AH$50,5,0),VLOOKUP($A13,Hoja2!$AC$55:$AH$58,5,0)))</f>
@@ -6791,8 +6813,11 @@
       <c r="I13" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -6815,8 +6840,7 @@
         <v>0.15029999999999999</v>
       </c>
       <c r="G14" s="24">
-        <f>IFERROR(VLOOKUP(C14,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B14,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A14,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>7.5399999999999995E-2</v>
+        <v>8.1849999999999978E-2</v>
       </c>
       <c r="H14" s="24">
         <f>IFERROR(VLOOKUP(C14,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B14,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A14,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6825,8 +6849,11 @@
       <c r="I14" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>225</v>
       </c>
@@ -6849,8 +6876,7 @@
         <v>0.15029999999999999</v>
       </c>
       <c r="G15" s="24">
-        <f>IFERROR(VLOOKUP(C15,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B15,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A15,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>7.5399999999999995E-2</v>
+        <v>8.1849999999999978E-2</v>
       </c>
       <c r="H15" s="24">
         <f>IFERROR(VLOOKUP(C15,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B15,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A15,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6859,8 +6885,11 @@
       <c r="I15" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>225</v>
       </c>
@@ -6883,7 +6912,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G16" s="24">
-        <f>IFERROR(VLOOKUP(C16,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B16,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A16,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H16" s="24">
@@ -6893,8 +6921,11 @@
       <c r="I16" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>225</v>
       </c>
@@ -6917,8 +6948,7 @@
         <v>0.2722</v>
       </c>
       <c r="G17" s="24">
-        <f>IFERROR(VLOOKUP(C17,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B17,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A17,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H17" s="24">
         <f>IFERROR(VLOOKUP(C17,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B17,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A17,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6927,8 +6957,11 @@
       <c r="I17" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>225</v>
       </c>
@@ -6951,8 +6984,7 @@
         <v>0.2722</v>
       </c>
       <c r="G18" s="24">
-        <f>IFERROR(VLOOKUP(C18,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B18,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A18,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H18" s="24">
         <f>IFERROR(VLOOKUP(C18,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B18,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A18,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -6961,8 +6993,11 @@
       <c r="I18" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>225</v>
       </c>
@@ -6985,7 +7020,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G19" s="24">
-        <f>IFERROR(VLOOKUP(C19,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B19,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A19,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H19" s="24">
@@ -6995,8 +7029,11 @@
       <c r="I19" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>225</v>
       </c>
@@ -7019,8 +7056,7 @@
         <v>0.3377</v>
       </c>
       <c r="G20" s="24">
-        <f>IFERROR(VLOOKUP(C20,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B20,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A20,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>7.1900000000000006E-2</v>
+        <v>8.120000000000005E-2</v>
       </c>
       <c r="H20" s="24">
         <f>IFERROR(VLOOKUP(C20,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B20,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A20,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7029,8 +7065,11 @@
       <c r="I20" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>225</v>
       </c>
@@ -7053,8 +7092,7 @@
         <v>0.3377</v>
       </c>
       <c r="G21" s="24">
-        <f>IFERROR(VLOOKUP(C21,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B21,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A21,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>7.1900000000000006E-2</v>
+        <v>8.120000000000005E-2</v>
       </c>
       <c r="H21" s="24">
         <f>IFERROR(VLOOKUP(C21,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B21,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A21,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7063,8 +7101,11 @@
       <c r="I21" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>225</v>
       </c>
@@ -7087,7 +7128,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G22" s="24">
-        <f>IFERROR(VLOOKUP(C22,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B22,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A22,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H22" s="24">
@@ -7097,8 +7137,11 @@
       <c r="I22" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>225</v>
       </c>
@@ -7121,8 +7164,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G23" s="24">
-        <f>IFERROR(VLOOKUP(C23,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B23,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A23,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H23" s="24">
         <f>IFERROR(VLOOKUP(C23,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B23,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A23,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7131,8 +7173,11 @@
       <c r="I23" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>225</v>
       </c>
@@ -7155,8 +7200,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G24" s="24">
-        <f>IFERROR(VLOOKUP(C24,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B24,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A24,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H24" s="24">
         <f>IFERROR(VLOOKUP(C24,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B24,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A24,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7165,8 +7209,11 @@
       <c r="I24" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>225</v>
       </c>
@@ -7189,7 +7236,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G25" s="24">
-        <f>IFERROR(VLOOKUP(C25,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B25,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A25,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H25" s="24">
@@ -7199,8 +7245,11 @@
       <c r="I25" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>225</v>
       </c>
@@ -7223,8 +7272,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G26" s="24">
-        <f>IFERROR(VLOOKUP(C26,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B26,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A26,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H26" s="24">
         <f>IFERROR(VLOOKUP(C26,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B26,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A26,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7233,8 +7281,11 @@
       <c r="I26" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -7257,8 +7308,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G27" s="24">
-        <f>IFERROR(VLOOKUP(C27,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B27,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A27,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H27" s="24">
         <f>IFERROR(VLOOKUP(C27,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B27,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A27,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7267,8 +7317,11 @@
       <c r="I27" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>225</v>
       </c>
@@ -7291,7 +7344,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G28" s="24">
-        <f>IFERROR(VLOOKUP(C28,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B28,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A28,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H28" s="24">
@@ -7301,8 +7353,11 @@
       <c r="I28" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -7325,8 +7380,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G29" s="24">
-        <f>IFERROR(VLOOKUP(C29,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B29,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A29,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H29" s="24">
         <f>IFERROR(VLOOKUP(C29,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B29,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A29,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7335,8 +7389,11 @@
       <c r="I29" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>225</v>
       </c>
@@ -7359,8 +7416,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G30" s="24">
-        <f>IFERROR(VLOOKUP(C30,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B30,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A30,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H30" s="24">
         <f>IFERROR(VLOOKUP(C30,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B30,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A30,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7369,8 +7425,11 @@
       <c r="I30" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>225</v>
       </c>
@@ -7393,7 +7452,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G31" s="24">
-        <f>IFERROR(VLOOKUP(C31,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B31,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A31,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H31" s="24">
@@ -7403,8 +7461,11 @@
       <c r="I31" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>225</v>
       </c>
@@ -7427,8 +7488,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G32" s="24">
-        <f>IFERROR(VLOOKUP(C32,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B32,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A32,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H32" s="24">
         <f>IFERROR(VLOOKUP(C32,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B32,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A32,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7437,8 +7497,11 @@
       <c r="I32" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>225</v>
       </c>
@@ -7461,8 +7524,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G33" s="24">
-        <f>IFERROR(VLOOKUP(C33,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B33,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A33,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H33" s="24">
         <f>IFERROR(VLOOKUP(C33,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B33,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A33,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7471,8 +7533,11 @@
       <c r="I33" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>225</v>
       </c>
@@ -7495,7 +7560,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G34" s="24">
-        <f>IFERROR(VLOOKUP(C34,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B34,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A34,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H34" s="24">
@@ -7505,8 +7569,11 @@
       <c r="I34" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>224</v>
       </c>
@@ -7529,8 +7596,7 @@
         <v>0.16472500000000001</v>
       </c>
       <c r="G35" s="24">
-        <f>IFERROR(VLOOKUP(C35,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B35,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A35,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>0.10804999999999999</v>
+        <v>0.10986250000000009</v>
       </c>
       <c r="H35" s="24">
         <f>IFERROR(VLOOKUP(C35,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B35,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A35,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7539,8 +7605,11 @@
       <c r="I35" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -7563,8 +7632,7 @@
         <v>1.9012000000000001E-2</v>
       </c>
       <c r="G36" s="24">
-        <f>IFERROR(VLOOKUP(E36,Hoja2!$S$2:$X$2,4,0),IFERROR(VLOOKUP($B36,Hoja2!$O$46:$T$48,4,0),VLOOKUP($A36,Hoja2!$O$58:$T$60,4,0)))</f>
-        <v>7.8308000000000003E-2</v>
+        <v>7.6080000000000036E-2</v>
       </c>
       <c r="H36" s="24">
         <f>IFERROR(VLOOKUP(F36,Hoja2!$S$2:$X$2,5,0),IFERROR(VLOOKUP($B36,Hoja2!$O$46:$T$48,5,0),VLOOKUP($A36,Hoja2!$O$58:$T$60,5,0)))</f>
@@ -7573,8 +7641,11 @@
       <c r="I36" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>224</v>
       </c>
@@ -7597,8 +7668,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="G37" s="24">
-        <f>IFERROR(VLOOKUP(C37,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B37,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A37,Hoja2!$AC$55:$AH$58,4,0)))</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999964E-2</v>
       </c>
       <c r="H37" s="24">
         <f>IFERROR(VLOOKUP(C37,Hoja2!$AG$2:$AL$7,5,0),IFERROR(VLOOKUP($B37,Hoja2!$AC$46:$AH$50,5,0),VLOOKUP($A37,Hoja2!$AC$55:$AH$58,5,0)))</f>
@@ -7607,8 +7677,11 @@
       <c r="I37" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>225</v>
       </c>
@@ -7631,8 +7704,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G38" s="24">
-        <f>IFERROR(VLOOKUP(C38,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B38,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A38,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H38" s="24">
         <f>IFERROR(VLOOKUP(C38,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B38,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A38,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7641,8 +7713,11 @@
       <c r="I38" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>225</v>
       </c>
@@ -7665,8 +7740,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G39" s="24">
-        <f>IFERROR(VLOOKUP(C39,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B39,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A39,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H39" s="24">
         <f>IFERROR(VLOOKUP(C39,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B39,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A39,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7675,8 +7749,11 @@
       <c r="I39" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>225</v>
       </c>
@@ -7699,7 +7776,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G40" s="24">
-        <f>IFERROR(VLOOKUP(C40,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B40,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A40,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H40" s="24">
@@ -7709,8 +7785,11 @@
       <c r="I40" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>225</v>
       </c>
@@ -7733,8 +7812,7 @@
         <v>0.2722</v>
       </c>
       <c r="G41" s="24">
-        <f>IFERROR(VLOOKUP(C41,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B41,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A41,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H41" s="24">
         <f>IFERROR(VLOOKUP(C41,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B41,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A41,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7743,8 +7821,11 @@
       <c r="I41" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>225</v>
       </c>
@@ -7767,8 +7848,7 @@
         <v>0.2722</v>
       </c>
       <c r="G42" s="24">
-        <f>IFERROR(VLOOKUP(C42,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B42,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A42,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H42" s="24">
         <f>IFERROR(VLOOKUP(C42,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B42,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A42,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7777,8 +7857,11 @@
       <c r="I42" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>225</v>
       </c>
@@ -7801,7 +7884,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G43" s="24">
-        <f>IFERROR(VLOOKUP(C43,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B43,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A43,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H43" s="24">
@@ -7811,8 +7893,11 @@
       <c r="I43" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>224</v>
       </c>
@@ -7835,8 +7920,7 @@
         <v>0.1211</v>
       </c>
       <c r="G44" s="24">
-        <f>IFERROR(VLOOKUP(C44,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B44,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A44,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>6.0499999999999998E-2</v>
+        <v>6.0599999999999987E-2</v>
       </c>
       <c r="H44" s="24">
         <f>IFERROR(VLOOKUP(C44,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B44,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A44,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7845,8 +7929,11 @@
       <c r="I44" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>224</v>
       </c>
@@ -7869,8 +7956,7 @@
         <v>1.9012000000000001E-2</v>
       </c>
       <c r="G45" s="24">
-        <f>IFERROR(VLOOKUP(E45,Hoja2!$S$2:$X$2,4,0),IFERROR(VLOOKUP($B45,Hoja2!$O$46:$T$48,4,0),VLOOKUP($A45,Hoja2!$O$58:$T$60,4,0)))</f>
-        <v>7.8308000000000003E-2</v>
+        <v>7.6080000000000036E-2</v>
       </c>
       <c r="H45" s="24">
         <f>IFERROR(VLOOKUP(F45,Hoja2!$S$2:$X$2,5,0),IFERROR(VLOOKUP($B45,Hoja2!$O$46:$T$48,5,0),VLOOKUP($A45,Hoja2!$O$58:$T$60,5,0)))</f>
@@ -7879,8 +7965,11 @@
       <c r="I45" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -7903,8 +7992,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="G46" s="24">
-        <f>IFERROR(VLOOKUP(C46,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B46,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A46,Hoja2!$AC$55:$AH$58,4,0)))</f>
-        <v>7.4999999999999997E-3</v>
+        <v>2.2499999999999964E-2</v>
       </c>
       <c r="H46" s="24">
         <f>IFERROR(VLOOKUP(C46,Hoja2!$AG$2:$AL$7,5,0),IFERROR(VLOOKUP($B46,Hoja2!$AC$46:$AH$50,5,0),VLOOKUP($A46,Hoja2!$AC$55:$AH$58,5,0)))</f>
@@ -7913,8 +8001,11 @@
       <c r="I46" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>225</v>
       </c>
@@ -7937,8 +8028,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G47" s="24">
-        <f>IFERROR(VLOOKUP(C47,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B47,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A47,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H47" s="24">
         <f>IFERROR(VLOOKUP(C47,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B47,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A47,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7947,8 +8037,11 @@
       <c r="I47" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>225</v>
       </c>
@@ -7971,8 +8064,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G48" s="24">
-        <f>IFERROR(VLOOKUP(C48,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B48,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A48,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H48" s="24">
         <f>IFERROR(VLOOKUP(C48,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B48,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A48,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -7981,8 +8073,11 @@
       <c r="I48" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>225</v>
       </c>
@@ -8005,7 +8100,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G49" s="24">
-        <f>IFERROR(VLOOKUP(C49,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B49,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A49,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H49" s="24">
@@ -8015,8 +8109,11 @@
       <c r="I49" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>225</v>
       </c>
@@ -8039,8 +8136,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G50" s="24">
-        <f>IFERROR(VLOOKUP(C50,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B50,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A50,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H50" s="24">
         <f>IFERROR(VLOOKUP(C50,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B50,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A50,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8049,8 +8145,11 @@
       <c r="I50" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>225</v>
       </c>
@@ -8073,8 +8172,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G51" s="24">
-        <f>IFERROR(VLOOKUP(C51,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B51,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A51,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H51" s="24">
         <f>IFERROR(VLOOKUP(C51,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B51,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A51,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8083,8 +8181,11 @@
       <c r="I51" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>225</v>
       </c>
@@ -8107,7 +8208,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G52" s="24">
-        <f>IFERROR(VLOOKUP(C52,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B52,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A52,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H52" s="24">
@@ -8117,8 +8217,11 @@
       <c r="I52" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>225</v>
       </c>
@@ -8141,8 +8244,7 @@
         <v>0.2722</v>
       </c>
       <c r="G53" s="24">
-        <f>IFERROR(VLOOKUP(C53,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B53,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A53,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H53" s="24">
         <f>IFERROR(VLOOKUP(C53,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B53,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A53,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8151,8 +8253,11 @@
       <c r="I53" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>225</v>
       </c>
@@ -8175,8 +8280,7 @@
         <v>0.2722</v>
       </c>
       <c r="G54" s="24">
-        <f>IFERROR(VLOOKUP(C54,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B54,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A54,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>9.35E-2</v>
+        <v>9.8900000000000099E-2</v>
       </c>
       <c r="H54" s="24">
         <f>IFERROR(VLOOKUP(C54,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B54,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A54,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8185,8 +8289,11 @@
       <c r="I54" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>225</v>
       </c>
@@ -8209,7 +8316,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G55" s="24">
-        <f>IFERROR(VLOOKUP(C55,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B55,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A55,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H55" s="24">
@@ -8219,8 +8325,11 @@
       <c r="I55" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>225</v>
       </c>
@@ -8243,8 +8352,7 @@
         <v>0.4768</v>
       </c>
       <c r="G56" s="24">
-        <f>IFERROR(VLOOKUP(C56,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B56,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A56,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>9.1199999999999948E-2</v>
       </c>
       <c r="H56" s="24">
         <f>IFERROR(VLOOKUP(C56,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B56,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A56,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8253,8 +8361,11 @@
       <c r="I56" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>225</v>
       </c>
@@ -8277,8 +8388,7 @@
         <v>0.4768</v>
       </c>
       <c r="G57" s="24">
-        <f>IFERROR(VLOOKUP(C57,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B57,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A57,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>9.1199999999999948E-2</v>
       </c>
       <c r="H57" s="24">
         <f>IFERROR(VLOOKUP(C57,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B57,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A57,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8287,8 +8397,11 @@
       <c r="I57" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>225</v>
       </c>
@@ -8311,7 +8424,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G58" s="24">
-        <f>IFERROR(VLOOKUP(C58,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B58,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A58,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H58" s="24">
@@ -8321,8 +8433,11 @@
       <c r="I58" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -8345,8 +8460,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G59" s="24">
-        <f>IFERROR(VLOOKUP(C59,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B59,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A59,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H59" s="24">
         <f>IFERROR(VLOOKUP(C59,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B59,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A59,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8355,8 +8469,11 @@
       <c r="I59" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>225</v>
       </c>
@@ -8379,8 +8496,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G60" s="24">
-        <f>IFERROR(VLOOKUP(C60,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B60,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A60,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H60" s="24">
         <f>IFERROR(VLOOKUP(C60,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B60,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A60,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8389,8 +8505,11 @@
       <c r="I60" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>225</v>
       </c>
@@ -8413,7 +8532,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G61" s="24">
-        <f>IFERROR(VLOOKUP(C61,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B61,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A61,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H61" s="24">
@@ -8423,8 +8541,11 @@
       <c r="I61" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>225</v>
       </c>
@@ -8447,8 +8568,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G62" s="24">
-        <f>IFERROR(VLOOKUP(C62,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B62,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A62,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H62" s="24">
         <f>IFERROR(VLOOKUP(C62,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B62,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A62,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8457,8 +8577,11 @@
       <c r="I62" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>225</v>
       </c>
@@ -8481,8 +8604,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G63" s="24">
-        <f>IFERROR(VLOOKUP(C63,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B63,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A63,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H63" s="24">
         <f>IFERROR(VLOOKUP(C63,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B63,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A63,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8491,8 +8613,11 @@
       <c r="I63" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>225</v>
       </c>
@@ -8515,7 +8640,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G64" s="24">
-        <f>IFERROR(VLOOKUP(C64,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B64,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A64,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H64" s="24">
@@ -8525,8 +8649,11 @@
       <c r="I64" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>225</v>
       </c>
@@ -8549,8 +8676,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G65" s="24">
-        <f>IFERROR(VLOOKUP(C65,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B65,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A65,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H65" s="24">
         <f>IFERROR(VLOOKUP(C65,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B65,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A65,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8559,8 +8685,11 @@
       <c r="I65" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>225</v>
       </c>
@@ -8583,8 +8712,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G66" s="24">
-        <f>IFERROR(VLOOKUP(C66,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B66,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A66,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H66" s="24">
         <f>IFERROR(VLOOKUP(C66,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B66,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A66,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8593,8 +8721,11 @@
       <c r="I66" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>225</v>
       </c>
@@ -8617,7 +8748,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G67" s="24">
-        <f>IFERROR(VLOOKUP(C67,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B67,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A67,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H67" s="24">
@@ -8627,8 +8757,11 @@
       <c r="I67" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>225</v>
       </c>
@@ -8651,8 +8784,7 @@
         <v>0.4768</v>
       </c>
       <c r="G68" s="24">
-        <f>IFERROR(VLOOKUP(C68,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B68,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A68,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>9.1199999999999948E-2</v>
       </c>
       <c r="H68" s="24">
         <f>IFERROR(VLOOKUP(C68,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B68,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A68,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8661,8 +8793,11 @@
       <c r="I68" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>225</v>
       </c>
@@ -8685,8 +8820,7 @@
         <v>0.4768</v>
       </c>
       <c r="G69" s="24">
-        <f>IFERROR(VLOOKUP(C69,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B69,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A69,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>9.1199999999999948E-2</v>
       </c>
       <c r="H69" s="24">
         <f>IFERROR(VLOOKUP(C69,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B69,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A69,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8695,8 +8829,11 @@
       <c r="I69" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>225</v>
       </c>
@@ -8719,7 +8856,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G70" s="24">
-        <f>IFERROR(VLOOKUP(C70,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B70,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A70,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H70" s="24">
@@ -8729,8 +8865,11 @@
       <c r="I70" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>225</v>
       </c>
@@ -8753,8 +8892,7 @@
         <v>0.4768</v>
       </c>
       <c r="G71" s="24">
-        <f>IFERROR(VLOOKUP(C71,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B71,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A71,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>9.1199999999999948E-2</v>
       </c>
       <c r="H71" s="24">
         <f>IFERROR(VLOOKUP(C71,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B71,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A71,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8763,8 +8901,11 @@
       <c r="I71" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>225</v>
       </c>
@@ -8787,8 +8928,7 @@
         <v>0.4768</v>
       </c>
       <c r="G72" s="24">
-        <f>IFERROR(VLOOKUP(C72,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B72,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A72,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>9.1199999999999948E-2</v>
       </c>
       <c r="H72" s="24">
         <f>IFERROR(VLOOKUP(C72,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B72,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A72,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8797,8 +8937,11 @@
       <c r="I72" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>225</v>
       </c>
@@ -8821,7 +8964,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G73" s="24">
-        <f>IFERROR(VLOOKUP(C73,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B73,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A73,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H73" s="24">
@@ -8831,8 +8973,11 @@
       <c r="I73" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>225</v>
       </c>
@@ -8855,8 +9000,7 @@
         <v>0.30730000000000002</v>
       </c>
       <c r="G74" s="24">
-        <f>IFERROR(VLOOKUP(C74,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B74,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A74,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>0.10505</v>
+        <v>0.10505000000000009</v>
       </c>
       <c r="H74" s="24">
         <f>IFERROR(VLOOKUP(C74,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B74,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A74,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8865,8 +9009,11 @@
       <c r="I74" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>225</v>
       </c>
@@ -8889,8 +9036,7 @@
         <v>0.30730000000000002</v>
       </c>
       <c r="G75" s="24">
-        <f>IFERROR(VLOOKUP(C75,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B75,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A75,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>0.10505</v>
+        <v>0.10505000000000009</v>
       </c>
       <c r="H75" s="24">
         <f>IFERROR(VLOOKUP(C75,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B75,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A75,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8899,8 +9045,11 @@
       <c r="I75" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>225</v>
       </c>
@@ -8923,7 +9072,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G76" s="24">
-        <f>IFERROR(VLOOKUP(C76,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B76,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A76,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H76" s="24">
@@ -8933,8 +9081,11 @@
       <c r="I76" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -8957,8 +9108,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G77" s="24">
-        <f>IFERROR(VLOOKUP(C77,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B77,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A77,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H77" s="24">
         <f>IFERROR(VLOOKUP(C77,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B77,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A77,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -8967,8 +9117,11 @@
       <c r="I77" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>225</v>
       </c>
@@ -8991,8 +9144,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G78" s="24">
-        <f>IFERROR(VLOOKUP(C78,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B78,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A78,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H78" s="24">
         <f>IFERROR(VLOOKUP(C78,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B78,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A78,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9001,8 +9153,11 @@
       <c r="I78" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>225</v>
       </c>
@@ -9025,7 +9180,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G79" s="24">
-        <f>IFERROR(VLOOKUP(C79,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B79,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A79,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H79" s="24">
@@ -9035,8 +9189,11 @@
       <c r="I79" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>225</v>
       </c>
@@ -9059,8 +9216,7 @@
         <v>0.4768</v>
       </c>
       <c r="G80" s="24">
-        <f>IFERROR(VLOOKUP(C80,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B80,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A80,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>9.1199999999999948E-2</v>
       </c>
       <c r="H80" s="24">
         <f>IFERROR(VLOOKUP(C80,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B80,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A80,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9069,8 +9225,11 @@
       <c r="I80" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>225</v>
       </c>
@@ -9093,8 +9252,7 @@
         <v>0.4768</v>
       </c>
       <c r="G81" s="24">
-        <f>IFERROR(VLOOKUP(C81,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B81,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A81,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.1799999999999998E-2</v>
+        <v>9.1199999999999948E-2</v>
       </c>
       <c r="H81" s="24">
         <f>IFERROR(VLOOKUP(C81,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B81,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A81,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9103,8 +9261,11 @@
       <c r="I81" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>225</v>
       </c>
@@ -9127,7 +9288,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G82" s="24">
-        <f>IFERROR(VLOOKUP(C82,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B82,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A82,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H82" s="24">
@@ -9137,8 +9297,11 @@
       <c r="I82" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>225</v>
       </c>
@@ -9161,8 +9324,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G83" s="24">
-        <f>IFERROR(VLOOKUP(C83,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B83,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A83,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H83" s="24">
         <f>IFERROR(VLOOKUP(C83,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B83,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A83,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9171,8 +9333,11 @@
       <c r="I83" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>225</v>
       </c>
@@ -9195,8 +9360,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G84" s="24">
-        <f>IFERROR(VLOOKUP(C84,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B84,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A84,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H84" s="24">
         <f>IFERROR(VLOOKUP(C84,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B84,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A84,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9205,8 +9369,11 @@
       <c r="I84" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>225</v>
       </c>
@@ -9229,7 +9396,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G85" s="24">
-        <f>IFERROR(VLOOKUP(C85,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B85,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A85,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H85" s="24">
@@ -9239,8 +9405,11 @@
       <c r="I85" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>225</v>
       </c>
@@ -9263,8 +9432,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G86" s="24">
-        <f>IFERROR(VLOOKUP(C86,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B86,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A86,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H86" s="24">
         <f>IFERROR(VLOOKUP(C86,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B86,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A86,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9273,8 +9441,11 @@
       <c r="I86" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>225</v>
       </c>
@@ -9297,8 +9468,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G87" s="24">
-        <f>IFERROR(VLOOKUP(C87,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B87,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A87,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H87" s="24">
         <f>IFERROR(VLOOKUP(C87,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B87,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A87,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9307,8 +9477,11 @@
       <c r="I87" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>225</v>
       </c>
@@ -9331,7 +9504,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G88" s="24">
-        <f>IFERROR(VLOOKUP(C88,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B88,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A88,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H88" s="24">
@@ -9341,8 +9513,11 @@
       <c r="I88" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>225</v>
       </c>
@@ -9365,8 +9540,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G89" s="24">
-        <f>IFERROR(VLOOKUP(C89,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B89,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A89,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H89" s="24">
         <f>IFERROR(VLOOKUP(C89,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B89,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A89,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9375,8 +9549,11 @@
       <c r="I89" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>225</v>
       </c>
@@ -9399,8 +9576,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G90" s="24">
-        <f>IFERROR(VLOOKUP(C90,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B90,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A90,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H90" s="24">
         <f>IFERROR(VLOOKUP(C90,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B90,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A90,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9409,8 +9585,11 @@
       <c r="I90" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>225</v>
       </c>
@@ -9433,7 +9612,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G91" s="24">
-        <f>IFERROR(VLOOKUP(C91,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B91,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A91,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H91" s="24">
@@ -9443,8 +9621,11 @@
       <c r="I91" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>225</v>
       </c>
@@ -9467,8 +9648,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G92" s="24">
-        <f>IFERROR(VLOOKUP(C92,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B92,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A92,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H92" s="24">
         <f>IFERROR(VLOOKUP(C92,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B92,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A92,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9477,8 +9657,11 @@
       <c r="I92" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>225</v>
       </c>
@@ -9501,8 +9684,7 @@
         <v>0.26503703703703702</v>
       </c>
       <c r="G93" s="24">
-        <f>IFERROR(VLOOKUP(C93,Hoja2!$E$1:$J$44,4,0),IFERROR(VLOOKUP($B93,Hoja2!$A$47:$F$75,4,0),VLOOKUP($A93,Hoja2!$A$78:$F$81,4,0)))</f>
-        <v>8.3292592592592585E-2</v>
+        <v>8.9903703703703819E-2</v>
       </c>
       <c r="H93" s="24">
         <f>IFERROR(VLOOKUP(C93,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B93,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A93,Hoja2!$A$78:$F$81,5,0)))</f>
@@ -9511,8 +9693,11 @@
       <c r="I93" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>225</v>
       </c>
@@ -9535,7 +9720,6 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G94" s="24">
-        <f>IFERROR(VLOOKUP(C94,Hoja2!$AG$2:$AL$7,4,0),IFERROR(VLOOKUP($B94,Hoja2!$AC$46:$AH$50,4,0),VLOOKUP($A94,Hoja2!$AC$55:$AH$58,4,0)))</f>
         <v>0</v>
       </c>
       <c r="H94" s="24">
@@ -9545,6 +9729,9 @@
       <c r="I94" s="24">
         <v>0</v>
       </c>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -9556,9 +9743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEA0327-075E-4F94-8CC0-F1851E194599}">
   <dimension ref="A1:AO81"/>
   <sheetViews>
-    <sheetView topLeftCell="L36" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9744,6 +9929,7 @@
       <c r="M2" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N2" s="18"/>
       <c r="O2" t="s">
         <v>224</v>
       </c>
@@ -9858,6 +10044,7 @@
       <c r="M3" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N3" s="18"/>
       <c r="O3" t="s">
         <v>224</v>
       </c>
@@ -9974,6 +10161,7 @@
       <c r="M4" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N4" s="18"/>
       <c r="O4" t="s">
         <v>224</v>
       </c>
@@ -10088,6 +10276,7 @@
       <c r="M5" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N5" s="18"/>
       <c r="O5" t="s">
         <v>224</v>
       </c>
@@ -10202,6 +10391,7 @@
       <c r="M6" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N6" s="18"/>
       <c r="O6" t="s">
         <v>224</v>
       </c>
@@ -10316,6 +10506,7 @@
       <c r="M7" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N7" s="18"/>
       <c r="O7" t="s">
         <v>224</v>
       </c>
@@ -10432,6 +10623,7 @@
       <c r="M8" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N8" s="18"/>
       <c r="O8" t="s">
         <v>224</v>
       </c>
@@ -10511,6 +10703,7 @@
       <c r="M9" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N9" s="18"/>
       <c r="O9" t="s">
         <v>224</v>
       </c>
@@ -10588,6 +10781,7 @@
       <c r="M10" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N10" s="18"/>
       <c r="O10" t="s">
         <v>224</v>
       </c>
@@ -10665,6 +10859,7 @@
       <c r="M11" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N11" s="18"/>
       <c r="O11" t="s">
         <v>224</v>
       </c>
@@ -10742,6 +10937,7 @@
       <c r="M12" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N12" s="18"/>
       <c r="O12" t="s">
         <v>224</v>
       </c>
@@ -10819,6 +11015,7 @@
       <c r="M13" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N13" s="18"/>
       <c r="O13" t="s">
         <v>224</v>
       </c>
@@ -10896,6 +11093,7 @@
       <c r="M14" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N14" s="18"/>
       <c r="O14" t="s">
         <v>224</v>
       </c>
@@ -10973,6 +11171,7 @@
       <c r="M15" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N15" s="18"/>
       <c r="O15" t="s">
         <v>224</v>
       </c>
@@ -11050,6 +11249,7 @@
       <c r="M16" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N16" s="18"/>
       <c r="O16" t="s">
         <v>224</v>
       </c>
@@ -11127,6 +11327,7 @@
       <c r="M17" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N17" s="18"/>
       <c r="O17" t="s">
         <v>224</v>
       </c>
@@ -11204,6 +11405,7 @@
       <c r="M18" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N18" s="18"/>
       <c r="O18" t="s">
         <v>224</v>
       </c>
@@ -11281,6 +11483,7 @@
       <c r="M19" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N19" s="18"/>
       <c r="O19" t="s">
         <v>224</v>
       </c>
@@ -11358,6 +11561,7 @@
       <c r="M20" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N20" s="18"/>
       <c r="O20" t="s">
         <v>224</v>
       </c>
@@ -11435,6 +11639,7 @@
       <c r="M21" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N21" s="18"/>
       <c r="O21" t="s">
         <v>224</v>
       </c>
@@ -11512,6 +11717,7 @@
       <c r="M22" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N22" s="18"/>
       <c r="O22" t="s">
         <v>224</v>
       </c>
@@ -11591,6 +11797,7 @@
       <c r="M23" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N23" s="18"/>
       <c r="O23" t="s">
         <v>224</v>
       </c>
@@ -11668,6 +11875,7 @@
       <c r="M24" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N24" s="18"/>
       <c r="O24" t="s">
         <v>224</v>
       </c>
@@ -11745,6 +11953,7 @@
       <c r="M25" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N25" s="18"/>
       <c r="O25" t="s">
         <v>224</v>
       </c>
@@ -11822,6 +12031,7 @@
       <c r="M26" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N26" s="18"/>
       <c r="O26" t="s">
         <v>224</v>
       </c>
@@ -11901,6 +12111,7 @@
       <c r="M27" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -11942,6 +12153,7 @@
       <c r="M28" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N28" s="18"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -11983,6 +12195,7 @@
       <c r="M29" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N29" s="18"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -12022,6 +12235,7 @@
       <c r="M30" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -12061,6 +12275,7 @@
       <c r="M31" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N31" s="18"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -12102,6 +12317,7 @@
       <c r="M32" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N32" s="18"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -12141,6 +12357,7 @@
       <c r="M33" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -12182,6 +12399,7 @@
       <c r="M34" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="N34" s="18"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -12221,6 +12439,7 @@
       <c r="M35" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N35" s="18"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -12260,6 +12479,7 @@
       <c r="M36" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N36" s="18"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -12299,6 +12519,7 @@
       <c r="M37" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N37" s="18"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -12338,6 +12559,7 @@
       <c r="M38" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N38" s="18"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -12377,6 +12599,7 @@
       <c r="M39" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N39" s="18"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -12416,6 +12639,7 @@
       <c r="M40" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N40" s="18"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -12455,6 +12679,7 @@
       <c r="M41" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N41" s="18"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
@@ -12494,6 +12719,7 @@
       <c r="M42" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N42" s="18"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -12533,6 +12759,7 @@
       <c r="M43" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N43" s="18"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -12572,6 +12799,7 @@
       <c r="M44" s="5" t="s">
         <v>77</v>
       </c>
+      <c r="N44" s="18"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="O46" s="17" t="s">

--- a/unique_species.xlsx
+++ b/unique_species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gencat-my.sharepoint.com/personal/gustavo_tudela_ctfc_cat/Documents/PhD/2025/Exchange period - Finland/YassoModeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="11_6D70FDCE8F79A8D366075C52F32AFAB7A6EF8957" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E505E9-990D-45CF-A7BA-A35BFF0A8789}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="11_6D70FDCE8F79A8D366075C52F32AFAB7A6EF8957" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BEE30FA-A921-4D44-93D1-68F5A87EC69F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="254">
   <si>
     <t>Species</t>
   </si>
@@ -4769,6 +4769,314 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B68E6DAD-EEF4-4857-8B24-31A6867BCEE3}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="O58:T60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="2">
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Promedio de A" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de W" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de E" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de N" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de H" fld="0" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="71">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de H"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de N"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de E"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de W"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de A"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="13"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Hoja2!$O$1:$Y$26">
+        <x15:activeTabTopLevelEntity name="[Rango 1]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{742C77F3-07CD-4862-B42D-5801EF75802C}" name="TablaDinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="AC46:AH50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Promedio de A" fld="5" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de W" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de E" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de N" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Promedio de H" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotHierarchies count="71">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de H"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de N"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de E"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de W"/>
+    <pivotHierarchy dragToData="1" caption="Promedio de A"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="25"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
+      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Hoja2!$AC$1:$AO$7">
+        <x15:activeTabTopLevelEntity name="[Rango 2]"/>
+      </x15:pivotTableUISettings>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{339E5F78-E572-4A2B-B5D8-300CC6179C62}" name="TablaDinámica5" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="O46:T48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -4918,7 +5226,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEF64FAF-D023-4824-B27D-9C152FB7B694}" name="TablaDinámica4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A78:F81" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5072,7 +5380,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A767ABBF-54D4-4EDA-A1E9-46328E202D47}" name="TablaDinámica3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A47:F75" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5326,7 +5634,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{278A49DF-E001-483F-AC18-D642A91CED67}" name="TablaDinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="AC55:AH58" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
@@ -5460,314 +5768,6 @@
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="1">
     <rowHierarchyUsage hierarchyUsage="24"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Hoja2!$AC$1:$AO$7">
-        <x15:activeTabTopLevelEntity name="[Rango 2]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B68E6DAD-EEF4-4857-8B24-31A6867BCEE3}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="O58:T60" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Promedio de A" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de W" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de E" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de N" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de H" fld="0" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="71">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de H"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de N"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de E"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de W"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de A"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="13"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{E67621CE-5B39-4880-91FE-76760E9C1902}">
-      <x15:pivotTableUISettings sourceDataName="WorksheetConnection_Hoja2!$O$1:$Y$26">
-        <x15:activeTabTopLevelEntity name="[Rango 1]"/>
-      </x15:pivotTableUISettings>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{742C77F3-07CD-4862-B42D-5801EF75802C}" name="TablaDinámica6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="AC46:AH50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" compact="0" allDrilled="1" outline="0" subtotalTop="0" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Promedio de A" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de W" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de E" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de N" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Promedio de H" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotHierarchies count="71">
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de H"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de N"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de E"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de W"/>
-    <pivotHierarchy dragToData="1" caption="Promedio de A"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="25"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -6343,10 +6343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8730,7 +8730,7 @@
         <v>225</v>
       </c>
       <c r="B67" t="str">
-        <f t="shared" ref="B67:B94" si="1">LEFT(C67,FIND(" ",C67) - 1)</f>
+        <f t="shared" ref="B67:B95" si="1">LEFT(C67,FIND(" ",C67) - 1)</f>
         <v>Sorbus</v>
       </c>
       <c r="C67" t="s">
@@ -9732,6 +9732,105 @@
       <c r="J94" s="25"/>
       <c r="K94" s="25"/>
       <c r="L94" s="25"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>224</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>Pinus</v>
+      </c>
+      <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" s="24">
+        <f>IFERROR(VLOOKUP(C95,Hoja2!$E$1:$J$44,2,0),IFERROR(VLOOKUP($B95,Hoja2!$A$47:$F$75,2,0),VLOOKUP($A95,Hoja2!$A$78:$F$81,2,0)))</f>
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="F95" s="24">
+        <f>IFERROR(VLOOKUP(C95,Hoja2!$E$1:$J$44,3,0),IFERROR(VLOOKUP($B95,Hoja2!$A$47:$F$75,3,0),VLOOKUP($A95,Hoja2!$A$78:$F$81,3,0)))</f>
+        <v>0.17730000000000001</v>
+      </c>
+      <c r="G95" s="24">
+        <v>0.10986250000000009</v>
+      </c>
+      <c r="H95" s="24">
+        <f>IFERROR(VLOOKUP(C95,Hoja2!$E$1:$J$44,5,0),IFERROR(VLOOKUP($B95,Hoja2!$A$47:$F$75,5,0),VLOOKUP($A95,Hoja2!$A$78:$F$81,5,0)))</f>
+        <v>0.216</v>
+      </c>
+      <c r="I95" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>224</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" ref="B96:B97" si="2">LEFT(C96,FIND(" ",C96) - 1)</f>
+        <v>Pinus</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" s="24">
+        <f>IFERROR(VLOOKUP(C96,Hoja2!$S$2:$X$2,2,0),IFERROR(VLOOKUP($B96,Hoja2!$O$46:$T$48,2,0),VLOOKUP($A96,Hoja2!$O$58:$T$60,2,0)))</f>
+        <v>0.4763</v>
+      </c>
+      <c r="F96" s="24">
+        <f>IFERROR(VLOOKUP(D96,Hoja2!$S$2:$X$2,3,0),IFERROR(VLOOKUP($B96,Hoja2!$O$46:$T$48,3,0),VLOOKUP($A96,Hoja2!$O$58:$T$60,3,0)))</f>
+        <v>1.9012000000000001E-2</v>
+      </c>
+      <c r="G96" s="24">
+        <v>7.6080000000000036E-2</v>
+      </c>
+      <c r="H96" s="24">
+        <f>IFERROR(VLOOKUP(F96,Hoja2!$S$2:$X$2,5,0),IFERROR(VLOOKUP($B96,Hoja2!$O$46:$T$48,5,0),VLOOKUP($A96,Hoja2!$O$58:$T$60,5,0)))</f>
+        <v>0.43024799999999996</v>
+      </c>
+      <c r="I96" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>224</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="2"/>
+        <v>Pinus</v>
+      </c>
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="E97" s="24">
+        <f>IFERROR(VLOOKUP(C97,Hoja2!$AG$2:$AL$7,2,0),IFERROR(VLOOKUP($B97,Hoja2!$AC$46:$AH$50,2,0),VLOOKUP($A97,Hoja2!$AC$55:$AH$58,2,0)))</f>
+        <v>0.66</v>
+      </c>
+      <c r="F97" s="24">
+        <f>IFERROR(VLOOKUP(C97,Hoja2!$AG$2:$AL$7,3,0),IFERROR(VLOOKUP($B97,Hoja2!$AC$46:$AH$50,3,0),VLOOKUP($A97,Hoja2!$AC$55:$AH$58,3,0)))</f>
+        <v>0.03</v>
+      </c>
+      <c r="G97" s="24">
+        <v>2.2499999999999964E-2</v>
+      </c>
+      <c r="H97" s="24">
+        <f>IFERROR(VLOOKUP(C97,Hoja2!$AG$2:$AL$7,5,0),IFERROR(VLOOKUP($B97,Hoja2!$AC$46:$AH$50,5,0),VLOOKUP($A97,Hoja2!$AC$55:$AH$58,5,0)))</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I97" s="24">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I94" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -12359,7 +12458,7 @@
       </c>
       <c r="N33" s="18"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" ht="24" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>225</v>
       </c>
@@ -12401,7 +12500,7 @@
       </c>
       <c r="N34" s="18"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" ht="24" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>224</v>
       </c>
@@ -12441,7 +12540,7 @@
       </c>
       <c r="N35" s="18"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" ht="24" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>224</v>
       </c>
@@ -12481,7 +12580,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" ht="24" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>225</v>
       </c>
@@ -12561,7 +12660,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" ht="24" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>225</v>
       </c>
@@ -12601,7 +12700,7 @@
       </c>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" ht="24" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>225</v>
       </c>
@@ -12641,7 +12740,7 @@
       </c>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" ht="24" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>225</v>
       </c>
